--- a/_data/factor_loadings_big5.xlsx
+++ b/_data/factor_loadings_big5.xlsx
@@ -414,19 +414,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.4193195787359938</v>
+        <v>-0.4193195787359932</v>
       </c>
       <c r="C2">
-        <v>-0.3711663960194039</v>
+        <v>-0.3711663960194054</v>
       </c>
       <c r="D2">
         <v>0.7015596680497301</v>
       </c>
       <c r="E2">
-        <v>0.04276906992377001</v>
+        <v>0.04276906992377187</v>
       </c>
       <c r="F2">
-        <v>-0.4386244819642929</v>
+        <v>-0.438624481964292</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -434,19 +434,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2568225837420868</v>
+        <v>0.2568225837420862</v>
       </c>
       <c r="C3">
-        <v>0.8211409260958349</v>
+        <v>0.821140926095834</v>
       </c>
       <c r="D3">
-        <v>0.4681882218666562</v>
+        <v>0.4681882218666577</v>
       </c>
       <c r="E3">
-        <v>0.08324773594267892</v>
+        <v>0.08324773594268391</v>
       </c>
       <c r="F3">
-        <v>-0.1834103141490952</v>
+        <v>-0.183410314149094</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -454,19 +454,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.5398564945143036</v>
+        <v>-0.5398564945143033</v>
       </c>
       <c r="C4">
-        <v>0.1845160563524302</v>
+        <v>0.1845160563524272</v>
       </c>
       <c r="D4">
-        <v>0.07358643405894492</v>
+        <v>0.07358643405894254</v>
       </c>
       <c r="E4">
-        <v>0.6163699986702452</v>
+        <v>0.6163699986702453</v>
       </c>
       <c r="F4">
-        <v>0.5377563125994945</v>
+        <v>0.5377563125994956</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -474,16 +474,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.4229301630610695</v>
+        <v>-0.4229301630610696</v>
       </c>
       <c r="C5">
-        <v>0.2700290126869234</v>
+        <v>0.2700290126869235</v>
       </c>
       <c r="D5">
-        <v>-0.531752463699015</v>
+        <v>-0.5317524636990139</v>
       </c>
       <c r="E5">
-        <v>0.1851157574107122</v>
+        <v>0.185115757410713</v>
       </c>
       <c r="F5">
         <v>-0.6566474573077619</v>
@@ -494,19 +494,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.5365615471430781</v>
+        <v>-0.5365615471430782</v>
       </c>
       <c r="C6">
-        <v>0.2846071735074745</v>
+        <v>0.284607173507477</v>
       </c>
       <c r="D6">
-        <v>0.02093263346565624</v>
+        <v>0.02093263346565909</v>
       </c>
       <c r="E6">
-        <v>-0.7596451817893494</v>
+        <v>-0.7596451817893487</v>
       </c>
       <c r="F6">
-        <v>0.2315199463457345</v>
+        <v>0.2315199463457333</v>
       </c>
     </row>
   </sheetData>

--- a/_data/factor_loadings_big5.xlsx
+++ b/_data/factor_loadings_big5.xlsx
@@ -414,19 +414,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.4193195787359932</v>
+        <v>-0.4193195787359938</v>
       </c>
       <c r="C2">
-        <v>-0.3711663960194054</v>
+        <v>-0.3711663960194039</v>
       </c>
       <c r="D2">
         <v>0.7015596680497301</v>
       </c>
       <c r="E2">
-        <v>0.04276906992377187</v>
+        <v>0.04276906992377001</v>
       </c>
       <c r="F2">
-        <v>-0.438624481964292</v>
+        <v>-0.4386244819642929</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -434,19 +434,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2568225837420862</v>
+        <v>0.2568225837420868</v>
       </c>
       <c r="C3">
-        <v>0.821140926095834</v>
+        <v>0.8211409260958349</v>
       </c>
       <c r="D3">
-        <v>0.4681882218666577</v>
+        <v>0.4681882218666562</v>
       </c>
       <c r="E3">
-        <v>0.08324773594268391</v>
+        <v>0.08324773594267892</v>
       </c>
       <c r="F3">
-        <v>-0.183410314149094</v>
+        <v>-0.1834103141490952</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -454,19 +454,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.5398564945143033</v>
+        <v>-0.5398564945143036</v>
       </c>
       <c r="C4">
-        <v>0.1845160563524272</v>
+        <v>0.1845160563524302</v>
       </c>
       <c r="D4">
-        <v>0.07358643405894254</v>
+        <v>0.07358643405894492</v>
       </c>
       <c r="E4">
-        <v>0.6163699986702453</v>
+        <v>0.6163699986702452</v>
       </c>
       <c r="F4">
-        <v>0.5377563125994956</v>
+        <v>0.5377563125994945</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -474,16 +474,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.4229301630610696</v>
+        <v>-0.4229301630610695</v>
       </c>
       <c r="C5">
-        <v>0.2700290126869235</v>
+        <v>0.2700290126869234</v>
       </c>
       <c r="D5">
-        <v>-0.5317524636990139</v>
+        <v>-0.531752463699015</v>
       </c>
       <c r="E5">
-        <v>0.185115757410713</v>
+        <v>0.1851157574107122</v>
       </c>
       <c r="F5">
         <v>-0.6566474573077619</v>
@@ -494,19 +494,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.5365615471430782</v>
+        <v>-0.5365615471430781</v>
       </c>
       <c r="C6">
-        <v>0.284607173507477</v>
+        <v>0.2846071735074745</v>
       </c>
       <c r="D6">
-        <v>0.02093263346565909</v>
+        <v>0.02093263346565624</v>
       </c>
       <c r="E6">
-        <v>-0.7596451817893487</v>
+        <v>-0.7596451817893494</v>
       </c>
       <c r="F6">
-        <v>0.2315199463457333</v>
+        <v>0.2315199463457345</v>
       </c>
     </row>
   </sheetData>
